--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC33_Price_Verification_on_CartPage.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC33_Price_Verification_on_CartPage.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vaibhav Oza\KAMAN_ECTEST_IE_SANITY-master\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="7635" windowHeight="4695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="TC33_price_Verification_on_Cart" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
   <si>
     <t>NAVIGATE_URL</t>
   </si>
@@ -304,6 +309,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -351,7 +359,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,7 +394,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -897,16 +905,16 @@
     <row r="23" spans="1:5">
       <c r="A23" s="9"/>
       <c r="B23" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -915,13 +923,13 @@
         <v>24</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -930,13 +938,13 @@
         <v>24</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -945,13 +953,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -960,103 +968,13 @@
         <v>24</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="9"/>
-      <c r="B28" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="9"/>
-      <c r="B29" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="9"/>
-      <c r="B30" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="9"/>
-      <c r="B31" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="9"/>
-      <c r="B32" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="9"/>
-      <c r="B33" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
